--- a/Honor_телефоны.xlsx
+++ b/Honor_телефоны.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41" customWidth="1" min="1" max="1"/>
+    <col width="43" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -456,93 +456,93 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40749</v>
+        <v>37749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honor Magic 7 12/256GB (PTP-N29) Duos</t>
+          <t>Honor Magic 6 Pro 12/512GB (BVL-N49) Duos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26700</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Honor 200 Pro 12/512GB (ELP-NX9) Duos</t>
+          <t>Honor Magic 7 12/256GB (PTP-N29) Duos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18400</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honor 400 8/256GB (DNY-NX9) Duos</t>
+          <t>Honor 90 Pro 16/256GB (REP-AN00) Duos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15100</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Honor 200 12/512GB (ELI-NX9) Duos</t>
+          <t>Honor 70 Pro+ 12/256GB (HPB-AN00) Duos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14900</v>
+        <v>14450</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Honor 70 Pro+ 12/256GB (HPB-AN00) Duos</t>
+          <t>Honor 200 12/512GB (ELI-NX9) Duos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14450</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Honor 70 Pro+ 8/256GB (HPB-AN00) Duos</t>
+          <t>Honor 200 12/256GB (ELI-AN00) Duos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14450</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Honor 200 8/256GB (ELI-NX9) Duos</t>
+          <t>Honor 200 12/256GB (ELI-NX9) Duos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13950</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Honor 90 12/512GB (REA-NX9) Duos</t>
+          <t>Honor 70 Pro+ 8/256GB (HPB-AN00) Duos</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13550</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Honor 70 12/512GB (FNE-AN00) Duos</t>
+          <t>Honor 200 8/256GB (ELI-NX9) Duos</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -552,7 +552,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Honor X9c 12/256GB (BRP-NX1) Duos</t>
+          <t>Honor 90 12/256GB (REA-NX9) Duos</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -562,791 +562,961 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Honor 90 8/256GB (REA-NX9) Duos</t>
+          <t>Honor 90 12/512GB (REA-NX9) Duos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11800</v>
+        <v>11950</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honor X9c 8/256GB (BRP-NX1) Duos</t>
+          <t>Honor X9c 12/256GB (BRP-NX1) Duos</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11650</v>
+        <v>11950</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honor X9c 8/256GB (BRC-NX1) Duos</t>
+          <t>Honor 70 12/256GB (FNE-AN00) Duos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11450</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Honor 50 8/256GB (NTH-AN00) Duos</t>
+          <t>Honor X9c 12/256GB (BRC-NX1) Duos</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8750</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Honor 50 8/256GB (NTH-NX9) Duos</t>
+          <t>Honor 90 8/256GB (REA-NX9) Duos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8750</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Honor 70 8/256GB (FNE-NX9) Duos</t>
+          <t>Honor X60 Pro 8/256GB (BRP-AN00) Duos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8750</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Honor X9b 12/256GB (ALI-NX1) Duos</t>
+          <t>Honor X9c 8/256GB (BRC-NX1) Duos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8750</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Honor X9b 8/256GB (ALI-NX1) Duos</t>
+          <t>Honor X9c 8/256GB (BRP-NX1) Duos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8750</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Honor 200 Lite 8/256GB (LLY-NX1) Duos</t>
+          <t>Honor X9b 12/256GB (ALI-NX1) Duos</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6950</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Honor 50 6/128GB (NTH-NX9) Duos</t>
+          <t>Honor 50 8/256GB (NTH-AN00) Duos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6950</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Honor 70 8/128GB (FNE-NX9) Duos</t>
+          <t>Honor 50 8/256GB (NTH-NX9) Duos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6950</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Honor X7c 8/256GB (ALT-LX1) Duos</t>
+          <t>Honor X7c 8/512GB (ALT-LX1) Duos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5850</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Honor X8b 8/256GB (LLY-LX1) Duos</t>
+          <t>Honor X8c 8/512GB (ABR-LX2) Duos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5850</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Honor 30 8/128GB (BMH-AN10) Duos</t>
+          <t>Honor X9a 8/256GB (RMO-NX1) Duos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5700</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Honor X9 6/128GB (ANY-LX1) Duos</t>
+          <t>Honor X9b 8/256GB (ALI-NX1) Duos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5700</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Honor X9 6/128GB (ANY-LX2) Duos</t>
+          <t>Honor 200 Lite 8/256GB (LLY-NX1) Duos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5700</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honor 90 Lite 8/256GB (CRT-NX1) Duos</t>
+          <t>Honor 50 6/128GB (NTH-NX9) Duos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5450</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Honor X8b 8/128GB (LLY-LX1) Duos</t>
+          <t>Honor 50 8/128GB (NTH-NX9) Duos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5450</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Honor 30S 6/128GB (CDY-NX9A) Duos</t>
+          <t>Honor 70 8/128GB (FNE-NX9) Duos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5300</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Honor X7a Plus 6/128GB (RKY-LX1) Duos</t>
+          <t>Honor X8c 8/256GB (ABR-LX1) Duos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4700</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honor 20 6/128GB (YAL-L21) Duos</t>
+          <t>Honor X8b 8/256GB (LLY-LX1) Duos</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4400</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Honor X7b 8/128GB (CLK-LX1) Duos</t>
+          <t>Honor X9a 6/128GB (RMO-NX1) Duos</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4400</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Honor X7c 6/128GB (ALT-LX1) Duos</t>
+          <t>Honor X8b 8/128GB (LLY-LX1) Duos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Honor X8a 6/128GB (CRT-LX1) Duos</t>
+          <t>Honor X9 6/128GB (ANY-LX1) Duos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4400</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Honor View 20 6/128GB (PCT-L29) Duos</t>
+          <t>Honor X9 6/128GB (ANY-LX2) Duos</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3850</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Honor X8 6/128GB (TFY-LX1) Duos</t>
+          <t>Honor 30 8/128GB (BMH-AN10) Duos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3800</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Honor 30i 4/128GB (LRA-LX1) Duos</t>
+          <t>Honor 400 Lite 8/256GB (ABR-NX1) Duos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3700</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Honor 50 Lite 6/128GB (NTN-LX1) Duos</t>
+          <t>Honor 90 Lite 8/256GB (CRT-NX1) Duos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3700</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Honor 10 6/64GB (COL-AL10) Duos</t>
+          <t>Honor X8c 6/128GB (ABR-LX1) Duos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3400</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honor 10 Lite 6/128GB (HRY-LX1) Duos</t>
+          <t>Honor X8c 8/128GB (ABR-LX1) Duos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3400</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Honor 8X 6/128GB (JSN-L22) Duos</t>
+          <t>Honor 20 Pro 8/256GB (YAL-L41) Duos</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3400</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Honor 9 6/128GB (STF-L09) Duos</t>
+          <t>Honor 30S 6/128GB (CDY-NX9A) Duos</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3400</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Honor 9X Premium 6/128GB (STK-LX1) Duos</t>
+          <t>Honor X6c 6/256GB (NIC-LX1) Duos</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Honor View 10 6/128GB (BKL-L09) Duos</t>
+          <t>Honor 50 Lite 6/128GB (NTN-LX1) Duos</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Honor X7a 4/128GB (RKY-LX1) Duos</t>
+          <t>Honor X7a Plus 6/128GB (RKY-LX1) Duos</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Honor 20S/Lite 6/128GB (MAR-LX1H) Duos</t>
+          <t>Honor X7c 6/128GB (ALT-LX1) Duos</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Honor 10 4/128GB (COL-L29) Duos</t>
+          <t>Honor X8a 6/128GB (CRT-LX1) Duos</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Honor 9X 4/128GB (STK-LX1) Duos</t>
+          <t>Honor 20 6/128GB (YAL-L21) Duos</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2950</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Honor 8 Pro 6/64GB (DUK-L09) Duos</t>
+          <t>Honor 30i 4/128GB (LRA-LX1) Duos</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2850</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Honor 9 6/64GB (STF-L09) Duos</t>
+          <t>Honor View 20 6/128GB (PCT-L29) Duos</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2850</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Honor 10 4/64GB (COL-L29) Duos</t>
+          <t>Honor X6c 6/128GB (NIC-LX1) Duos</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2550</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Honor 10X Lite 4/128GB (DNN-LX9) Duos</t>
+          <t>Honor X7b 8/128GB (CLK-LX1) Duos</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2550</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Honor 8X 4/128GB (JSN-L21) Duos</t>
+          <t>Honor 10 Lite 6/128GB (HRY-LX1) Duos</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2450</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Honor 10i 4/128GB (HRY-LX1T) Duos</t>
+          <t>Honor 10i 6/128GB (HRY-LX1T) Duos</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2250</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Honor 9C 4/64GB (AKA-L29) Duos</t>
+          <t>Honor 9X Premium 6/128GB (STK-LX1) Duos</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2250</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Honor 8X 4/64GB (JSN-L21) Duos</t>
+          <t>Honor View 10 6/128GB (BKL-L09) Duos</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Honor 8X 4/64GB (JSN-L22) Duos</t>
+          <t>Honor X7a 4/128GB (RKY-LX1) Duos</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Honor 10 Lite 3/64GB (HRY-LX1) Duos</t>
+          <t>Honor 10 4/128GB (COL-L29) Duos</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1950</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Honor 8A Prime 3/64GB (JAT-LX1) Duos</t>
+          <t>Honor 10 6/64GB (COL-AL10) Duos</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1950</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Honor 9 Lite 4/64GB (LLD-L31/AL10) Duos</t>
+          <t>Honor 20S/Lite 6/128GB (MAR-LX1H) Duos</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1900</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Honor 8S Prime 3/64GB (KSA-LX9) Duos</t>
+          <t>Honor 9X 4/128GB (STK-LX1) Duos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1850</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Honor 10 Lite 3/32GB (HRY-LX1) Duos</t>
+          <t>Honor X7 4/128GB (CMA-LX1) Duos</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1800</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Honor 6X 4/64GB (BLN-L21) Duos</t>
+          <t>Honor 10X Lite 4/128GB (DNN-LX9) Duos</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1800</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Honor 7X 4/64GB (BND-L21) Duos</t>
+          <t>Honor 20 Lite 4/128GB (MAR-LX1H) Duos</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1800</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Honor 9 4/64GB (STF-L09) Duos</t>
+          <t>Honor 8 Pro 6/64GB (DUK-L09) Duos</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1800</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Honor 9A 3/64GB (MOA-LX9N) Duos</t>
+          <t>Honor X6a 4/128GB (WDY-LX1) Duos</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1800</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Honor 8C 3/32GB (BKK-L21) Duos</t>
+          <t>Honor 10i 4/128GB (HRY-LX1T) Duos</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1700</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Honor 9 Lite 3/32GB (LLD-L31/AL10) Duos</t>
+          <t>Honor 8X 4/128GB (JSN-L21) Duos</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1550</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Honor 7 3/32GB (PLK-L01) Duos</t>
+          <t>Honor 10 4/64GB (COL-L29) Duos</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1450</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Honor 7C 3/32GB (AUM-L41) Duos</t>
+          <t>Honor 9C 4/64GB (AKA-L29) Duos</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Honor 7C Pro 3/32GB (LND-L29) Duos</t>
+          <t>Honor X6 4/64GB (VNE-LX1) Duos</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1250</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Honor 8 Lite 3/32GB (PRA-TL10) Duos</t>
+          <t>Honor 8X 4/64GB (JSN-L21) Duos</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1250</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Honor 6C Pro 3/32GB (JMM-L22) Duos</t>
+          <t>Honor 7X 4/64GB (BND-L21) Duos</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1150</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Honor 5X 2/16GB (KIW-L21) Duos</t>
+          <t>Honor 10 Lite 3/32GB (HRY-LX1) Duos</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Honor 5X 2/16GB (KIW-TL00) Duos</t>
+          <t>Honor 10 Lite 3/64GB (HRY-LX1) Duos</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Honor 8A 2/32GB (JAT-LX1) Duos</t>
+          <t>Honor 8C 3/32GB (BKK-L21) Duos</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Honor 7A Pro 2/16GB (AUM-L29) Duos</t>
+          <t>Honor 8S Prime 3/64GB (KSA-LX9) Duos</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Honor 8S 2/32GB (KSA-LX9) Duos</t>
+          <t>Honor 9 4/64GB (STF-L09) Duos</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Honor 6C 3/32GB (DIG-L21HN) Duos</t>
+          <t>Honor 9 Lite 4/64GB (LLD-L31/AL10) Duos</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Honor 7A Prime 2/32GB (DUA-L22) Duos</t>
+          <t>Honor 9A 3/64GB (MOA-LX9N) Duos</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Honor 9S 2/32GB (DUA-LX9) Duos</t>
+          <t>Honor 8 4/32GB (FRD-L09) Duos</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Honor 7A 2/16GB (DUA-L22) Duos</t>
+          <t>Honor 8A Prime 3/64GB (JAT-LX1) Duos</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Honor 5C 2/16GB (NEM-L51) Duos</t>
+          <t>Honor 9 Lite 3/32GB (LLD-L31/AL10) Duos</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>650</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Honor 7S 1/16GB (DRA-LX5) Duos</t>
+          <t>Honor 7 3/16GB (PLK-L01) Duos</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Honor 4C 2/8GB (CHM-U01) Duos</t>
+          <t>Honor X5 2/32GB (VNA-LX2) Duos</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Honor 6A 2/16GB (DLI-TL20) Duos</t>
+          <t>Honor 7A Prime 2/32GB (DUA-L22) Duos</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Honor 5A 2/16GB (LYO-L21) Duos</t>
+          <t>Honor 7C 3/32GB (AUM-L41) Duos</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>549</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Honor 3 (HN3-U00)</t>
+          <t>Honor 8 Lite 3/32GB (PRA-TL10) Duos</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>449</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Honor 8 Lite 4/32GB (PRA-TL10) Duos</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Honor 8A 2/32GB (JAT-LX1) Duos</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Honor 8S 2/32GB (KSA-LX9) Duos</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Honor 6C Pro 3/32GB (JMM-L22) Duos</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Honor 9S 2/32GB (DUA-LX9) Duos</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Honor 5X 2/16GB (KIW-L21) Duos</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Honor 7A Pro 2/16GB (AUM-L29) Duos</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Honor 5C 2/16GB (NEM-L51) Duos</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Honor 6C 3/32GB (DIG-L21HN) Duos</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Honor 4X 2/8GB (CHE2-L11) Duos</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Honor 7A 2/16GB (DUA-L22) Duos</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Honor 7S 1/16GB (DRA-LX5) Duos</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Honor 7S 2/16GB (DRA-LX5) Duos</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Honor 4C 2/8GB (CHM-U01) Duos</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Honor 5A 2/16GB (LYO-L21) Duos</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Honor 6A 2/16GB (DLI-TL20) Duos</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Honor 3 (HN3-U00)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>Honor 3C Lite (HOL-U19) Duos</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>449</v>
+      <c r="B108" t="n">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
